--- a/Questions/Questions.xlsx
+++ b/Questions/Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekerry\Documents\challenge-of-champions\Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FBC2DC-12B6-432A-B7F7-A8A96FD09FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78929AF0-5E21-48C7-8AB4-49E4152DF812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0112AE4D-BB4B-9249-B82A-59666D52E668}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{0112AE4D-BB4B-9249-B82A-59666D52E668}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="650">
   <si>
     <t>Category</t>
   </si>
@@ -1650,13 +1650,349 @@
   </si>
   <si>
     <t>Front Panel</t>
+  </si>
+  <si>
+    <t>What is Taylor Swift’s middle name?</t>
+  </si>
+  <si>
+    <t>Alison</t>
+  </si>
+  <si>
+    <t>Where was Taylor Swift born?</t>
+  </si>
+  <si>
+    <t>West Reading, Pennsylvania</t>
+  </si>
+  <si>
+    <t>What is Taylor Swift’s birthday?</t>
+  </si>
+  <si>
+    <t>What is Taylor Swift’s brother’s name?</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>What is Taylor Swift’s mother’s name?</t>
+  </si>
+  <si>
+    <t>Andrea</t>
+  </si>
+  <si>
+    <t>What is Taylor Swift’s father’s name?</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>In what year was Taylor Swift given TIME magazine’s Person of the Year award?</t>
+  </si>
+  <si>
+    <t>Which two Taylor Swift songs are allegedly about John Mayer?</t>
+  </si>
+  <si>
+    <t>“Dear John” and “Would’ve, Could’ve, Should’ve”</t>
+  </si>
+  <si>
+    <t>What was the name of the tour Taylor Swift had been planning for 2020?</t>
+  </si>
+  <si>
+    <t>Lover Fest</t>
+  </si>
+  <si>
+    <t>How many album covers feature Taylor Swift’s super curly hair?</t>
+  </si>
+  <si>
+    <t>Three—her debut album, Fearless, and Speak Now</t>
+  </si>
+  <si>
+    <t>Does Taylor Swift have any album covers in black and white?</t>
+  </si>
+  <si>
+    <t>Yes, two—reputation and folklore</t>
+  </si>
+  <si>
+    <t>Which album did Taylor Swift write by herself, without any co-writers?</t>
+  </si>
+  <si>
+    <t>Speak Now</t>
+  </si>
+  <si>
+    <t>What artist is Taylor Swift named after?</t>
+  </si>
+  <si>
+    <t>James Taylor</t>
+  </si>
+  <si>
+    <t>What show did Taylor Swift appear on in 2009?</t>
+  </si>
+  <si>
+    <t>“CSI”</t>
+  </si>
+  <si>
+    <t>Swift named her fifth album “1989” because:</t>
+  </si>
+  <si>
+    <t>It was the year her brother was born.</t>
+  </si>
+  <si>
+    <t>Which album contains the tracks ‘I Know Places’ and ‘This Love’?</t>
+  </si>
+  <si>
+    <t>“1989”</t>
+  </si>
+  <si>
+    <t>In her youth, Taylor Swift won a talent show to open for which singer?</t>
+  </si>
+  <si>
+    <t>Shania Twain</t>
+  </si>
+  <si>
+    <t>How much did the 1989 World Tour make at the end of the tour?</t>
+  </si>
+  <si>
+    <t>$250 million</t>
+  </si>
+  <si>
+    <t>What is Taylor Swift’s height?</t>
+  </si>
+  <si>
+    <t>5’10"</t>
+  </si>
+  <si>
+    <t>Which of Taylor Swift’s albums ends with ‘Begin Again’?</t>
+  </si>
+  <si>
+    <t>“Red”</t>
+  </si>
+  <si>
+    <t>Which store was ‘Sounds of the Seasons’ exclusively released into?</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Gary Lightbody of Snow Patrol featured on what Taylor Swift album?</t>
+  </si>
+  <si>
+    <t>What was the name of the person who taught Taylor Swift how to play guitar?</t>
+  </si>
+  <si>
+    <t>Ronnie Cremer</t>
+  </si>
+  <si>
+    <t>Which Taylor Swift song ends with the statement ‘I gotta have you’?</t>
+  </si>
+  <si>
+    <t>“Shake it Off”</t>
+  </si>
+  <si>
+    <t>Which Taylor Swift song opens with ‘You’re on the phone to your girlfriend she’s upset’?</t>
+  </si>
+  <si>
+    <t>“Hey Stephen”</t>
+  </si>
+  <si>
+    <t>Cooking</t>
+  </si>
+  <si>
+    <t>Which country is credited with inventing pasta?</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>What is the national dish of Spain?</t>
+  </si>
+  <si>
+    <t>Paella</t>
+  </si>
+  <si>
+    <t>Which herb is traditionally used in pesto sauce?</t>
+  </si>
+  <si>
+    <t>Basil</t>
+  </si>
+  <si>
+    <t>What is the primary ingredient in hummus?</t>
+  </si>
+  <si>
+    <t>Chickpeas</t>
+  </si>
+  <si>
+    <t>What is the key ingredient in a classic Margherita pizza?</t>
+  </si>
+  <si>
+    <t>Mozzarella cheese, tomatoes, and fresh basil</t>
+  </si>
+  <si>
+    <t>What was Taylor Swift's first ever single released?</t>
+  </si>
+  <si>
+    <t>"Tim McGraw"</t>
+  </si>
+  <si>
+    <t>In which year was Taylor Swift born?</t>
+  </si>
+  <si>
+    <t>What was the title of Taylor Swift's first studio album?</t>
+  </si>
+  <si>
+    <t>"Taylor Swift"</t>
+  </si>
+  <si>
+    <t>Which of Taylor Swift's albums won the Album of the Year Grammy Award in 2010?</t>
+  </si>
+  <si>
+    <t>"Fearless"</t>
+  </si>
+  <si>
+    <t>What was the name of Taylor Swift's character in the movie "The Giver"?</t>
+  </si>
+  <si>
+    <t>Rosemary</t>
+  </si>
+  <si>
+    <t>What is the title of Taylor Swift's fourth studio album?</t>
+  </si>
+  <si>
+    <t>"Red"</t>
+  </si>
+  <si>
+    <t>What is the name of Taylor Swift's younger brother?</t>
+  </si>
+  <si>
+    <t>Austin Swift</t>
+  </si>
+  <si>
+    <t>Which song from the album "1989" won the Grammy Award for Record of the Year in 2016?</t>
+  </si>
+  <si>
+    <t>"Bad Blood"</t>
+  </si>
+  <si>
+    <t>What is the name of Taylor Swift's first cat?</t>
+  </si>
+  <si>
+    <t>Meredith Grey</t>
+  </si>
+  <si>
+    <t>Taylor Swift won an Emmy Award in 2015 for what category?</t>
+  </si>
+  <si>
+    <t>Original Interactive Program for "AMEX Unstaged"</t>
+  </si>
+  <si>
+    <t>Solar System</t>
+  </si>
+  <si>
+    <t>What is the largest planet in our Solar System?</t>
+  </si>
+  <si>
+    <t>Jupiter</t>
+  </si>
+  <si>
+    <t>Which planet is known as the "Red Planet"?</t>
+  </si>
+  <si>
+    <t>What is the smallest planet in our Solar System?</t>
+  </si>
+  <si>
+    <t>Mercury</t>
+  </si>
+  <si>
+    <t>What is the name of the fifth planet from the Sun?</t>
+  </si>
+  <si>
+    <t>Which moon in the Solar System is larger than the smallest planet?</t>
+  </si>
+  <si>
+    <t>Ganymede (moon of Jupiter)</t>
+  </si>
+  <si>
+    <t>What is the hottest planet in our Solar System?</t>
+  </si>
+  <si>
+    <t>Venus</t>
+  </si>
+  <si>
+    <t>Which planet has the most moons in our Solar System?</t>
+  </si>
+  <si>
+    <t>What is the largest asteroid in the Solar System?</t>
+  </si>
+  <si>
+    <t>Ceres</t>
+  </si>
+  <si>
+    <t>What is the name of the only planet in the Solar System known to support life?</t>
+  </si>
+  <si>
+    <t>Earth</t>
+  </si>
+  <si>
+    <t>Which planet in the Solar System has the fastest rotational speed?</t>
+  </si>
+  <si>
+    <t>Jupite</t>
+  </si>
+  <si>
+    <t>What is the largest moon of Saturn?</t>
+  </si>
+  <si>
+    <t>Titan</t>
+  </si>
+  <si>
+    <t>Which planet has the most prominent rings in our Solar System?</t>
+  </si>
+  <si>
+    <t>Saturn</t>
+  </si>
+  <si>
+    <t>What is the second largest moon in the Solar System?</t>
+  </si>
+  <si>
+    <t>Callisto (moon of Jupiter)</t>
+  </si>
+  <si>
+    <t>Which planet is closest to the Sun?</t>
+  </si>
+  <si>
+    <t>What is the name of the largest volcano in the Solar System, located on Mars?</t>
+  </si>
+  <si>
+    <t>Olympus Mons</t>
+  </si>
+  <si>
+    <t>What is the name of the spacecraft that visited Pluto in 2015?</t>
+  </si>
+  <si>
+    <t>New Horizons</t>
+  </si>
+  <si>
+    <t>Which planet has the longest day (rotation period) in our Solar System?</t>
+  </si>
+  <si>
+    <t>What is the name of the dwarf planet located beyond Neptune in the Kuiper Belt?</t>
+  </si>
+  <si>
+    <t>Pluto</t>
+  </si>
+  <si>
+    <t>What is the name of the second planet from the Sun?</t>
+  </si>
+  <si>
+    <t>What is the name of the spacecraft launched by NASA in 1977 to explore the outer Solar System?</t>
+  </si>
+  <si>
+    <t>Voyager 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1689,6 +2025,11 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF111111"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1768,7 +2109,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1791,6 +2132,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2127,10 +2474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91021FFA-FEB4-3C49-82B3-D3BB340E9C8A}">
-  <dimension ref="A1:E291"/>
+  <dimension ref="A1:E352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="E277" sqref="E277"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
@@ -6470,6 +6817,860 @@
       </c>
       <c r="E291" s="7" t="s">
         <v>517</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B292" s="9">
+        <v>1</v>
+      </c>
+      <c r="C292" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="D292" s="9" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B293" s="9">
+        <v>1</v>
+      </c>
+      <c r="C293" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="D293" s="9" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B294" s="9">
+        <v>1</v>
+      </c>
+      <c r="C294" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="D294" s="10">
+        <v>32855</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B295" s="9">
+        <v>1</v>
+      </c>
+      <c r="C295" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="D295" s="9" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B296" s="9">
+        <v>1</v>
+      </c>
+      <c r="C296" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="D296" s="9" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B297" s="9">
+        <v>1</v>
+      </c>
+      <c r="C297" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="D297" s="9" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="30">
+      <c r="A298" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B298" s="9">
+        <v>2</v>
+      </c>
+      <c r="C298" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="D298" s="9">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="30">
+      <c r="A299" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B299" s="9">
+        <v>2</v>
+      </c>
+      <c r="C299" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="D299" s="9" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="30">
+      <c r="A300" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B300" s="9">
+        <v>2</v>
+      </c>
+      <c r="C300" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="D300" s="9" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="30">
+      <c r="A301" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B301" s="9">
+        <v>3</v>
+      </c>
+      <c r="C301" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="D301" s="9" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" ht="30">
+      <c r="A302" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B302" s="9">
+        <v>3</v>
+      </c>
+      <c r="C302" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="D302" s="9" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="30">
+      <c r="A303" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B303" s="9">
+        <v>3</v>
+      </c>
+      <c r="C303" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="D303" s="9" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="15.75">
+      <c r="A304" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B304" s="9">
+        <v>4</v>
+      </c>
+      <c r="C304" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="D304" s="9" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="15.75">
+      <c r="A305" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B305" s="9">
+        <v>5</v>
+      </c>
+      <c r="C305" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="D305" s="9" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="15.75">
+      <c r="A306" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B306" s="9">
+        <v>5</v>
+      </c>
+      <c r="C306" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="D306" s="9" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="31.5">
+      <c r="A307" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B307" s="9">
+        <v>5</v>
+      </c>
+      <c r="C307" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="D307" s="9" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="31.5">
+      <c r="A308" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B308" s="9">
+        <v>5</v>
+      </c>
+      <c r="C308" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="D308" s="9" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="31.5">
+      <c r="A309" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B309" s="9">
+        <v>5</v>
+      </c>
+      <c r="C309" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="D309" s="9" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="15.75">
+      <c r="A310" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B310" s="9">
+        <v>5</v>
+      </c>
+      <c r="C310" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="D310" s="9" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" ht="31.5">
+      <c r="A311" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B311" s="9">
+        <v>5</v>
+      </c>
+      <c r="C311" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="D311" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="31.5">
+      <c r="A312" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B312" s="9">
+        <v>5</v>
+      </c>
+      <c r="C312" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="D312" s="9" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" ht="31.5">
+      <c r="A313" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B313" s="9">
+        <v>5</v>
+      </c>
+      <c r="C313" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="D313" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="31.5">
+      <c r="A314" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B314" s="9">
+        <v>5</v>
+      </c>
+      <c r="C314" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="D314" s="9" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="31.5">
+      <c r="A315" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B315" s="9">
+        <v>5</v>
+      </c>
+      <c r="C315" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="D315" s="9" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="31.5">
+      <c r="A316" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B316" s="9">
+        <v>5</v>
+      </c>
+      <c r="C316" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="D316" s="9" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="15.75">
+      <c r="A317" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="B317" s="9">
+        <v>1</v>
+      </c>
+      <c r="C317" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="D317" s="9" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="15.75">
+      <c r="A318" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="B318" s="9">
+        <v>1</v>
+      </c>
+      <c r="C318" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D318" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" ht="15.75">
+      <c r="A319" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="B319" s="9">
+        <v>1</v>
+      </c>
+      <c r="C319" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="D319" s="9" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" ht="15.75">
+      <c r="A320" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="B320" s="9">
+        <v>1</v>
+      </c>
+      <c r="C320" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="D320" s="9" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" ht="15.75">
+      <c r="A321" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="B321" s="9">
+        <v>1</v>
+      </c>
+      <c r="C321" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="D321" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" ht="31.5">
+      <c r="A322" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="B322" s="9">
+        <v>1</v>
+      </c>
+      <c r="C322" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="D322" s="9" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A323" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B323" s="2">
+        <v>3</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A324" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B324" s="2">
+        <v>2</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D324" s="3">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A325" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B325" s="2">
+        <v>4</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" ht="32.25" thickBot="1">
+      <c r="A326" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B326" s="2">
+        <v>1</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D326" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" ht="32.25" thickBot="1">
+      <c r="A327" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B327" s="2">
+        <v>5</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A328" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B328" s="2">
+        <v>3</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D328" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A329" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B329" s="2">
+        <v>2</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D329" s="3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" ht="32.25" thickBot="1">
+      <c r="A330" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B330" s="2">
+        <v>4</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D330" s="3" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A331" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B331" s="2">
+        <v>1</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D331" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" ht="32.25" thickBot="1">
+      <c r="A332" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B332" s="2">
+        <v>5</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A333" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B333" s="2">
+        <v>2</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="D333" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A334" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B334" s="2">
+        <v>3</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="D334" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A335" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B335" s="2">
+        <v>4</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="D335" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A336" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B336" s="2">
+        <v>1</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="D336" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" ht="32.25" thickBot="1">
+      <c r="A337" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B337" s="2">
+        <v>5</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="D337" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A338" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B338" s="2">
+        <v>3</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="D338" s="3" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A339" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B339" s="2">
+        <v>2</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="D339" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A340" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B340" s="2">
+        <v>4</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="D340" s="3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" ht="32.25" thickBot="1">
+      <c r="A341" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B341" s="2">
+        <v>1</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="D341" s="3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" ht="32.25" thickBot="1">
+      <c r="A342" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B342" s="2">
+        <v>5</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A343" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B343" s="2">
+        <v>3</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="D343" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" ht="32.25" thickBot="1">
+      <c r="A344" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B344" s="2">
+        <v>2</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D344" s="3" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A345" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B345" s="2">
+        <v>4</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="D345" s="3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A346" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B346" s="2">
+        <v>1</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="D346" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" ht="32.25" thickBot="1">
+      <c r="A347" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B347" s="2">
+        <v>5</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="D347" s="3" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A348" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B348" s="2">
+        <v>3</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="D348" s="3" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" ht="32.25" thickBot="1">
+      <c r="A349" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B349" s="2">
+        <v>2</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="D349" s="3" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" ht="32.25" thickBot="1">
+      <c r="A350" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B350" s="2">
+        <v>4</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="D350" s="3" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A351" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B351" s="2">
+        <v>1</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="D351" s="3" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" ht="32.25" thickBot="1">
+      <c r="A352" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B352" s="2">
+        <v>5</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="D352" s="3" t="s">
+        <v>649</v>
       </c>
     </row>
   </sheetData>
